--- a/dehaze-evaluation/doneresults.xlsx
+++ b/dehaze-evaluation/doneresults.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\University\ce901_tilbury_benjamin_m_j\dehaze-evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C0CF34-F97C-4D7B-A9D7-744AF656E33B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64AD40AD-05A9-43A8-990D-1C112001322B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{547927E6-32E9-49E4-8317-022A77A64B6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
   <si>
     <t>Ancuti</t>
   </si>
@@ -111,6 +113,75 @@
   </si>
   <si>
     <t>Real-time capability</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Real-Time Performance</t>
+  </si>
+  <si>
+    <t>Haze Removal</t>
+  </si>
+  <si>
+    <t>Naturalness Quality</t>
+  </si>
+  <si>
+    <t>Inf</t>
+  </si>
+  <si>
+    <t>up</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Replace with scaled time-per-megapixel</t>
+  </si>
+  <si>
+    <t>down</t>
+  </si>
+  <si>
+    <t>112?</t>
+  </si>
+  <si>
+    <t>1 - x/112</t>
+  </si>
+  <si>
+    <t>1 - 1/100</t>
+  </si>
+  <si>
+    <t>1 - x/100</t>
+  </si>
+  <si>
+    <t>None needed</t>
+  </si>
+  <si>
+    <t>Replace with a scaled RMSE</t>
+  </si>
+  <si>
+    <t>1-x</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>1/3</t>
+  </si>
+  <si>
+    <t>Stochastic</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -134,12 +205,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -148,13 +220,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C5700"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,18 +240,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -221,41 +288,53 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="60% - Accent3" xfId="3" builtinId="40"/>
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+  <cellStyles count="4">
+    <cellStyle name="60% - Accent3" xfId="2" builtinId="40"/>
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -571,7 +650,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,248 +660,248 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -830,4 +909,377 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2020597B-7D52-480E-AD22-7D5C352BB32B}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" style="6"/>
+    <col min="5" max="5" width="10.140625" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A10">
+    <sortCondition ref="A1:A10"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526EBE4B-E13E-451B-A5B2-9452933FD889}">
+  <dimension ref="A1:O11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="50.140625" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="10">
+        <v>1</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1">
+        <v>100</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1">
+        <v>100</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="10">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>